--- a/Stefano+Luminari-trials.xlsx
+++ b/Stefano+Luminari-trials.xlsx
@@ -426,7 +426,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1</v>
